--- a/C2_LP/C2_E1.xlsx
+++ b/C2_LP/C2_E1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pm.deoliveiradejes/Dropbox (Personal)/Uniandes/2024_20/IELE4100_2022_20 - Planificación de Sistemas de Potencia/C2 - Optimización LP/guia de estudio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pm.deoliveiradejes\Documents\GitHub\PSE\C2_LP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05685D33-0B1C-9D42-A732-74F9FA8CC8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{323B7D40-D30E-4614-AF29-6771B04CEBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>Operación Económica de Sistemas de Potencia</t>
   </si>
@@ -572,7 +572,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -963,7 +963,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1265,41 +1265,41 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1"/>
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="18.75">
       <c r="E2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="18.75">
       <c r="E3" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:7" s="3" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" s="2" customFormat="1"/>
+    <row r="5" spans="1:7" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="6" spans="1:7" s="2" customFormat="1"/>
+    <row r="7" spans="1:7" s="2" customFormat="1">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C7"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="2" customFormat="1"/>
+    <row r="9" spans="1:7" s="2" customFormat="1">
       <c r="B9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="2" customFormat="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="19.5">
       <c r="B11" s="8" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
@@ -1329,7 +1329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="2" customFormat="1">
       <c r="B13" s="5">
         <v>1</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="B14" s="7">
         <v>2</v>
       </c>
@@ -1361,14 +1361,14 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="2" customFormat="1"/>
+    <row r="16" spans="1:7" s="2" customFormat="1">
       <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" s="2" customFormat="1"/>
+    <row r="18" spans="2:4" s="2" customFormat="1">
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1379,21 +1379,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:4" s="2" customFormat="1"/>
+    <row r="20" spans="2:4" s="2" customFormat="1"/>
+    <row r="21" spans="2:4" s="2" customFormat="1"/>
+    <row r="22" spans="2:4" s="2" customFormat="1"/>
+    <row r="23" spans="2:4" s="2" customFormat="1"/>
+    <row r="24" spans="2:4" s="2" customFormat="1"/>
+    <row r="25" spans="2:4" s="2" customFormat="1"/>
+    <row r="26" spans="2:4" s="2" customFormat="1"/>
+    <row r="27" spans="2:4" s="2" customFormat="1"/>
+    <row r="28" spans="2:4" s="2" customFormat="1"/>
+    <row r="29" spans="2:4" s="2" customFormat="1"/>
+    <row r="30" spans="2:4" s="2" customFormat="1"/>
+    <row r="31" spans="2:4" s="2" customFormat="1"/>
+    <row r="32" spans="2:4" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1409,38 +1409,38 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="15" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="16.5" thickBot="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21" t="s">
@@ -1459,7 +1459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" thickBot="1">
       <c r="B8" s="22" t="s">
         <v>27</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="B9" s="19" t="s">
         <v>36</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>1E+30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.5" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
@@ -1528,12 +1528,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.5" thickBot="1">
       <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
@@ -1552,7 +1552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.5" thickBot="1">
       <c r="B14" s="22" t="s">
         <v>27</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.5" thickBot="1">
       <c r="B15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1611,36 +1611,36 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="16.5" thickBot="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21" t="s">
@@ -1650,7 +1650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="16.5" thickBot="1">
       <c r="B8" s="22" t="s">
         <v>27</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="B9" s="19" t="s">
         <v>36</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="16.5" thickBot="1">
       <c r="B10" s="20" t="s">
         <v>37</v>
       </c>
@@ -1692,12 +1692,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="16.5" thickBot="1">
       <c r="A12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21" t="s">
@@ -1707,7 +1707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="16.5" thickBot="1">
       <c r="B14" s="22" t="s">
         <v>27</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="16.5" thickBot="1">
       <c r="B15" s="20" t="s">
         <v>38</v>
       </c>
@@ -1744,50 +1744,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74410A91-2D92-814C-B795-1522C93EBDA1}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.375" customWidth="1"/>
+    <col min="2" max="2" width="2.125" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="9" width="5.1640625" customWidth="1"/>
+    <col min="8" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="13" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1"/>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="18.75">
       <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="18.75">
       <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:15" s="3" customFormat="1" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" s="2" customFormat="1"/>
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="5.0999999999999996" customHeight="1"/>
+    <row r="6" spans="1:15" s="2" customFormat="1"/>
+    <row r="7" spans="1:15" s="2" customFormat="1"/>
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="46.5">
       <c r="A8" s="18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="2" customFormat="1"/>
+    <row r="10" spans="1:15" s="2" customFormat="1">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="19.5">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="19.5">
       <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>PGmax</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="19.5">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>MW</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="19.5">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1939,9 +1939,6 @@
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="J15" s="7">
         <v>2</v>
@@ -1960,7 +1957,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="19.5">
       <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
@@ -1975,7 +1972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="18.75">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1993,13 +1990,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="13"/>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="2" customFormat="1" ht="19.5">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2021,7 +2018,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="2" customFormat="1" ht="19.5">
       <c r="A20" s="12" t="s">
         <v>19</v>
       </c>
@@ -2036,7 +2033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -2051,18 +2048,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:11" s="2" customFormat="1"/>
+    <row r="23" spans="1:11" s="2" customFormat="1"/>
+    <row r="24" spans="1:11" s="2" customFormat="1"/>
+    <row r="25" spans="1:11" s="2" customFormat="1"/>
+    <row r="26" spans="1:11" s="2" customFormat="1"/>
+    <row r="27" spans="1:11" s="2" customFormat="1"/>
+    <row r="28" spans="1:11" s="2" customFormat="1"/>
+    <row r="29" spans="1:11" s="2" customFormat="1"/>
+    <row r="30" spans="1:11" s="2" customFormat="1"/>
+    <row r="31" spans="1:11" s="2" customFormat="1"/>
+    <row r="32" spans="1:11" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
